--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKKPS143-001 until DPLKKPS143-002 - Kepesertaan - Transaksi - Register Split Balance.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKKPS143-001 until DPLKKPS143-002 - Kepesertaan - Transaksi - Register Split Balance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DPLK\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD18B255-A0CC-4F13-A7C3-8099A69CC8F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967551D4-12CF-4A57-9AF9-0EB48362E691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DPLKKPS143-001" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="41">
   <si>
     <t>RUN</t>
   </si>
@@ -117,18 +117,6 @@
   </si>
   <si>
     <t>KEP.TRX.445 Lanjutkan Verifikasi</t>
-  </si>
-  <si>
-    <t>Username : 30603;
-Password : bni1234;
-Role : 10 - Asisten Settlement;
-Keterangan Perubahan : KEP.TRX.445 melakukan Split Iuran;
-No. Peserta : 803770644;
-Saldo Nominal Final - Saldo Awal Perusahaan : 0;
-Saldo Nominal Final - Saldo Awal Pribadi : 1.207.098,56;
-Saldo Nominal Final - Saldo Awal Hasil Pengembangan (Pribadi) : 613.857,61;
-Status Register : 0 - Pending Register;
-Keterangan Register : KEP.TRX.445 Lanjutkan Verifikasi</t>
   </si>
   <si>
     <t>SNF_IURAN_PRIBADI</t>
@@ -158,6 +146,25 @@
 Saldo Nominal Final - Saldo Awal Pengalihan Iuran Perusahaan : 0,00;
 Status Register : 0 - Pending Register;
 Keterangan Register : KEP.TRX.445 Pending Register</t>
+  </si>
+  <si>
+    <t>NO_REGISTER</t>
+  </si>
+  <si>
+    <t>Username : 33028;
+Password : bni1234;
+Role : 10 - Asisten Settlement;
+Keterangan Perubahan : KEP.TRX.445 melakukan Split Iuran;
+Saldo Nominal Final - Saldo Awal Iuran Pribadi : 308.000,00;
+Saldo Nominal Final - Saldo Awal Iuran Perusahaan : 1.292.000,00;
+Saldo Nominal Final - Saldo Awal Iuran Sukarela : 0,00;
+Saldo Nominal Final - Saldo Awal Pengalihan Iuran Karyawan : 0,00;
+Saldo Nominal Final - Saldo Awal Pengalihan Iuran Perusahaan : 0,00;
+Status Register : 1 - Lanjutkan Ke Verifikasi;
+Keterangan Register : KEP.TRX.445 Lanjutkan Verifikasi</t>
+  </si>
+  <si>
+    <t>M11220800000027</t>
   </si>
 </sst>
 </file>
@@ -552,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A75AAA4-F28F-45B6-8D73-FB1F2606A1FB}">
   <dimension ref="A1:V4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -631,19 +638,19 @@
         <v>26</v>
       </c>
       <c r="P1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="R1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="U1" s="2" t="s">
         <v>19</v>
@@ -669,7 +676,7 @@
         <v>24</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G2" s="3">
         <v>33028</v>
@@ -747,41 +754,42 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{653A54F0-D01B-49C0-BB41-F0FC7D2164BA}">
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="30.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="31.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="14" max="14" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="30.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="31.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -822,35 +830,38 @@
         <v>13</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="Q1" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>34</v>
       </c>
       <c r="S1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="T1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
     </row>
-    <row r="2" spans="1:23" ht="191.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="242.25" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -867,10 +878,10 @@
         <v>30</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G2" s="3">
-        <v>30603</v>
+        <v>33028</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>12</v>
@@ -890,20 +901,18 @@
       <c r="M2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="4">
-        <v>803770644</v>
-      </c>
-      <c r="P2" s="10">
-        <v>20200000</v>
-      </c>
+      <c r="P2" s="4"/>
       <c r="Q2" s="10">
-        <v>44108126</v>
+        <v>308000</v>
       </c>
       <c r="R2" s="10">
-        <v>0</v>
+        <v>1292000</v>
       </c>
       <c r="S2" s="10">
         <v>0</v>
@@ -911,15 +920,18 @@
       <c r="T2" s="10">
         <v>0</v>
       </c>
-      <c r="U2" s="2">
+      <c r="U2" s="10">
+        <v>0</v>
+      </c>
+      <c r="V2" s="2">
         <v>1</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="5"/>
       <c r="C3" s="7"/>
@@ -934,8 +946,9 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="F4" s="6"/>
     </row>
   </sheetData>

--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKKPS143-001 until DPLKKPS143-002 - Kepesertaan - Transaksi - Register Split Balance.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKKPS143-001 until DPLKKPS143-002 - Kepesertaan - Transaksi - Register Split Balance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DPLK\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967551D4-12CF-4A57-9AF9-0EB48362E691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900A5417-80F8-4B34-891F-5914674482C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DPLKKPS143-001" sheetId="4" r:id="rId1"/>
@@ -155,8 +155,8 @@
 Password : bni1234;
 Role : 10 - Asisten Settlement;
 Keterangan Perubahan : KEP.TRX.445 melakukan Split Iuran;
-Saldo Nominal Final - Saldo Awal Iuran Pribadi : 308.000,00;
-Saldo Nominal Final - Saldo Awal Iuran Perusahaan : 1.292.000,00;
+Saldo Nominal Final - Saldo Awal Iuran Pribadi : 2.000.000,00;
+Saldo Nominal Final - Saldo Awal Iuran Perusahaan : 1.600.000,00;
 Saldo Nominal Final - Saldo Awal Iuran Sukarela : 0,00;
 Saldo Nominal Final - Saldo Awal Pengalihan Iuran Karyawan : 0,00;
 Saldo Nominal Final - Saldo Awal Pengalihan Iuran Perusahaan : 0,00;
@@ -164,7 +164,7 @@
 Keterangan Register : KEP.TRX.445 Lanjutkan Verifikasi</t>
   </si>
   <si>
-    <t>M11220800000027</t>
+    <t>M11220800000011</t>
   </si>
 </sst>
 </file>
@@ -219,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -249,6 +249,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -559,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A75AAA4-F28F-45B6-8D73-FB1F2606A1FB}">
   <dimension ref="A1:V4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -756,8 +759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{653A54F0-D01B-49C0-BB41-F0FC7D2164BA}">
   <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -909,10 +912,10 @@
       </c>
       <c r="P2" s="4"/>
       <c r="Q2" s="10">
-        <v>308000</v>
+        <v>2000000</v>
       </c>
       <c r="R2" s="10">
-        <v>1292000</v>
+        <v>1600000</v>
       </c>
       <c r="S2" s="10">
         <v>0</v>
@@ -947,6 +950,7 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
+      <c r="Q3" s="11"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="F4" s="6"/>
